--- a/src/main/resources/Pharmacy_list.xlsx
+++ b/src/main/resources/Pharmacy_list.xlsx
@@ -424,8 +424,7 @@
     <t xml:space="preserve">8-922-740-34-63</t>
   </si>
   <si>
-    <t xml:space="preserve">apteka-74@bk.ru
- </t>
+    <t xml:space="preserve">apteka-74@bk.ru</t>
   </si>
   <si>
     <t xml:space="preserve">ООО "Злата"</t>
@@ -513,9 +512,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="&quot;BOOL&quot;E&quot;AN&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -554,12 +554,11 @@
       <charset val="204"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -567,7 +566,7 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -594,7 +593,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -618,11 +617,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -633,6 +629,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -655,12 +655,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -668,14 +668,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -685,10 +684,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ57"/>
+  <dimension ref="A1:AMJ58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -700,8 +699,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="34.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.82"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,7 +713,6 @@
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
       <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
@@ -1730,1427 +1729,1614 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="G35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="G40" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="G44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="n">
+      <c r="G46" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="G50" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="4" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="C52" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="n">
+      <c r="G52" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K22" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K24" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K25" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E47" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B53" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G53" s="6" t="s">
+      <c r="C53" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J53" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G26" r:id="rId1" display="svezheereshenie_gag_16@fastmail.com "/>
-    <hyperlink ref="G48" r:id="rId2" display="apteka-74@bk.ru&#10; "/>
-    <hyperlink ref="G49" r:id="rId3" display="olans2017@mail.ru"/>
-    <hyperlink ref="G50" r:id="rId4" display="spravka074@list.ru"/>
+    <hyperlink ref="G25" r:id="rId1" display="svezheereshenie_gag_16@fastmail.com "/>
+    <hyperlink ref="G47" r:id="rId2" display="apteka-74@bk.ru"/>
+    <hyperlink ref="G48" r:id="rId3" display="olans2017@mail.ru"/>
+    <hyperlink ref="G49" r:id="rId4" display="spravka074@list.ru"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/resources/Pharmacy_list.xlsx
+++ b/src/main/resources/Pharmacy_list.xlsx
@@ -469,7 +469,7 @@
     <t xml:space="preserve">8-800-700-91-19</t>
   </si>
   <si>
-    <t xml:space="preserve">m.grigoryev@farmaimpex.ru</t>
+    <t xml:space="preserve">ritfarm@farmaimpex.ru</t>
   </si>
   <si>
     <t xml:space="preserve">ИП Решетников</t>
@@ -687,7 +687,7 @@
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
+      <selection pane="topLeft" activeCell="G50" activeCellId="0" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3209,7 +3209,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
         <v>146</v>
       </c>
@@ -3337,6 +3337,7 @@
     <hyperlink ref="G47" r:id="rId2" display="apteka-74@bk.ru"/>
     <hyperlink ref="G48" r:id="rId3" display="olans2017@mail.ru"/>
     <hyperlink ref="G49" r:id="rId4" display="spravka074@list.ru"/>
+    <hyperlink ref="G50" r:id="rId5" display="ritfarm@farmaimpex.ru"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
